--- a/nuaxess/assets/NuAxess_Company_Template.xlsx
+++ b/nuaxess/assets/NuAxess_Company_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuaxess\nuaxess-nuaxess\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909BC65E-DBE5-4CD9-84E9-86ECA7F31D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB325C40-DEAF-4B83-8D05-07AA436C3D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E9A7D9B-66FD-4BE6-8653-78DE66501928}"/>
   </bookViews>
@@ -35,8 +35,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Natette</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{DA37E173-8EA2-480D-98CF-4925266DFC5A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Married, Single, Separated, Widowed
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Company Name:</t>
   </si>
@@ -83,9 +107,6 @@
     <t>Company Address</t>
   </si>
   <si>
-    <t>Notes:</t>
-  </si>
-  <si>
     <t>State:</t>
   </si>
   <si>
@@ -110,79 +131,184 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Middle Name (Initial)</t>
-  </si>
-  <si>
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>Gender  (M/F)</t>
-  </si>
-  <si>
-    <t>Marital Status (S/M)</t>
-  </si>
-  <si>
-    <t>Include Bronze?</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Include Bronze HSA?</t>
-  </si>
-  <si>
-    <t>Include Silver?</t>
-  </si>
-  <si>
-    <t>Include Silver HSA?</t>
-  </si>
-  <si>
-    <t>Include Platinum?</t>
-  </si>
-  <si>
-    <t>Inclune Platinum HSA?</t>
-  </si>
-  <si>
-    <t>Include Copper?</t>
-  </si>
-  <si>
-    <t>Include Copper HSA?</t>
-  </si>
-  <si>
-    <t>Sample Company</t>
-  </si>
-  <si>
-    <t>Sample Broker</t>
-  </si>
-  <si>
-    <t>support@mynuaxess.com</t>
-  </si>
-  <si>
     <t>C Corp</t>
   </si>
   <si>
-    <t>Doe</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>New Company:</t>
   </si>
   <si>
     <t>If No, Company Id:</t>
+  </si>
+  <si>
+    <t>Company Staus:</t>
+  </si>
+  <si>
+    <t>Enrolled</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Billing Contact Name:</t>
+  </si>
+  <si>
+    <t>Billing Contact Email:</t>
+  </si>
+  <si>
+    <t>Billing Contact Phone:</t>
+  </si>
+  <si>
+    <t>Billing Contact Email #2:</t>
+  </si>
+  <si>
+    <t>Billing Contact Email #3:</t>
+  </si>
+  <si>
+    <t>Billing Contact Email #4:</t>
+  </si>
+  <si>
+    <t>Billing Contact Email #5:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member ID Number            (Social Security Number)                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependent ID Number                      (Social Security Number)                        </t>
+  </si>
+  <si>
+    <t>Middle Initial</t>
+  </si>
+  <si>
+    <t>Relationship (Employee, Husband, Wife Son, Daughter)</t>
+  </si>
+  <si>
+    <t>Gender - F/M</t>
+  </si>
+  <si>
+    <t>Industry:</t>
+  </si>
+  <si>
+    <t>[INVOICE_COMPANY_CITY]</t>
+  </si>
+  <si>
+    <t>[INVOICE_COMPANY_STATE]</t>
+  </si>
+  <si>
+    <t>[INVOICE_COMPANY_SUITE]</t>
+  </si>
+  <si>
+    <t>[INVOICE_COMPANY_ADDRESS]</t>
+  </si>
+  <si>
+    <t>[INVOICE_COMPANY_NAME]</t>
+  </si>
+  <si>
+    <t>[WEBSITE]</t>
+  </si>
+  <si>
+    <t>[STATE]</t>
+  </si>
+  <si>
+    <t>[CITY]</t>
+  </si>
+  <si>
+    <t>[ZIP]</t>
+  </si>
+  <si>
+    <t>[SUITE]</t>
+  </si>
+  <si>
+    <t>[ADDRESS]</t>
+  </si>
+  <si>
+    <t>[ID]</t>
+  </si>
+  <si>
+    <t>[COMPANY_NAME] **</t>
+  </si>
+  <si>
+    <t>[BROKER_NAME]</t>
+  </si>
+  <si>
+    <t>[BROKER_EMAIL]</t>
+  </si>
+  <si>
+    <t>[TAX_ID]</t>
+  </si>
+  <si>
+    <t>[CONTACT_NAME]</t>
+  </si>
+  <si>
+    <t>[CONTACT_PHONE]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CONTACT_EMAIL]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CURRENT_INVOICE_PROVIDER] </t>
+  </si>
+  <si>
+    <t>[DSC]</t>
+  </si>
+  <si>
+    <t>[INVOICE_CONTACT_NAME]</t>
+  </si>
+  <si>
+    <t>[INVOICE_CONTACT_EMAIL]</t>
+  </si>
+  <si>
+    <t>[INVOICE_CONTACT_PHONE]</t>
+  </si>
+  <si>
+    <t>[INVOICE_CONTACT_EMAIL2]</t>
+  </si>
+  <si>
+    <t>[INVOICE_CONTACT_EMAIL3]</t>
+  </si>
+  <si>
+    <t>[INVOICE_CONTACT_EMAIL4]</t>
+  </si>
+  <si>
+    <t>[INVOICE_CONTACT_EMAIL5]</t>
+  </si>
+  <si>
+    <t>[SOCIAL_SECURITY_NUMBER]</t>
+  </si>
+  <si>
+    <t>[DEPENDENT_SOCIAL_SECURITY_NUMBER]</t>
+  </si>
+  <si>
+    <t>[LAST_NAME]</t>
+  </si>
+  <si>
+    <t>[FIRST_NAME]</t>
+  </si>
+  <si>
+    <t>Marital Status - S/M</t>
+  </si>
+  <si>
+    <t>[MIDDLE_NAME]</t>
+  </si>
+  <si>
+    <t>[RELATIONSHIP]</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -214,20 +340,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -250,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -301,34 +425,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -645,336 +809,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32CE376-7239-43DA-A7DE-115B74539A60}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>39</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="134.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="D19" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>29</v>
+      <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B14:B25 B2" xr:uid="{4523F113-E1BF-4C85-A91A-E5C52A47AE1A}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B16:B19" xr:uid="{4523F113-E1BF-4C85-A91A-E5C52A47AE1A}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{6D01B898-F6C6-4347-BE5B-E6938FAB817D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{D02B711B-DE53-47F1-9956-4F6D32D7682B}">
       <formula1>"1-10, 11 or more"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{24A3BD20-18B9-413F-BBE6-A7B2693A7A45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{EBD9833C-1EF9-4F2A-9EF0-DD22B035FADE}">
       <formula1>"C Corp, S Corp, LLC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{2E8B0A89-E7E2-4B55-B84E-34E64FAE4BAE}">
+      <formula1>"Prospect,Enrolling,Enrolled"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{332855B7-B17F-48A3-8ADC-B11BEEB412DD}"/>
+    <hyperlink ref="B6" r:id="rId1" display="ehonour@nuaxess.com" xr:uid="{5EC23E62-F508-4294-BA7C-94A984046282}"/>
+    <hyperlink ref="D8" r:id="rId2" display="https://gexlabs.com" xr:uid="{D4AD202E-1BA5-485C-A8F5-AABF3C3E802D}"/>
+    <hyperlink ref="D19" r:id="rId3" display="jlozinski@artfin.com" xr:uid="{9E02D58F-BFFC-44B3-89A4-4FAC67D4DFB0}"/>
+    <hyperlink ref="D21" r:id="rId4" display="ehonour@nuaxess.com" xr:uid="{5A7FA96B-CBBB-4E33-AC85-FD446FA71D50}"/>
+    <hyperlink ref="D22" r:id="rId5" display="ed@edhonour.com" xr:uid="{5C10FAB7-2A65-4C85-84C7-E345E355EFAA}"/>
+    <hyperlink ref="D23" r:id="rId6" display="ehonour@anl.gov" xr:uid="{A88318E0-A9E2-4B44-85F8-6DC59424AB95}"/>
+    <hyperlink ref="D24" r:id="rId7" display="edwardhonour@gmail.com" xr:uid="{30176389-C367-479A-A1FC-95FB78E8723C}"/>
+    <hyperlink ref="B11" r:id="rId8" display="jeff@tritaniumlabs.com" xr:uid="{F75F9780-FE9D-460C-BCF5-7EF1C337CD54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C85CB8-62C7-40D3-B037-8DECD1FD060D}">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C85CB8-62C7-40D3-B037-8DECD1FD060D}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="117" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="E2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="H2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="7">
+        <v>44210</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="11">
-        <v>24919</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="11">
-        <v>25673</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E206" xr:uid="{B3150C0D-7C89-4542-A637-656D7630E284}">
+  <dataValidations count="3">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G935" xr:uid="{B3150C0D-7C89-4542-A637-656D7630E284}">
       <formula1>1</formula1>
       <formula2>47483</formula2>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1272" xr:uid="{73CFD481-2B95-4F04-87EA-0F84F52C5AC1}">
+      <formula1>"F,M"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I253" xr:uid="{671C6800-6D1E-4748-A4C9-66806F889312}">
+      <formula1>"M,S"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>